--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/10022026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/10022026.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">martes, 10 de febrero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Marcos
-Marcos 7, 1-13 En aquel tiempo, se acercaron a Jesús los fariseos y algunos escribas, venidos de Jerusalén. Viendo que algunos de los discípulos de Jesús comían con las manos impuras, es decir, sin habérselas lavado, los fariseos y los escribas le preguntaron: "¿Por qué tus discípulos comen con manos impuras y no siguen la tradición de nuestros mayores?" (Los fariseos y los judíos, en general, no comen sin lavarse antes las manos hasta el codo, siguiendo la tradición de sus mayores; al volver del mercado, no comen sin hacer primero las abluciones, y observan muchas otras cosas por tradición, como purificar los vasos, las jarras y las ollas). Jesús les contestó: "¡Qué bien profetizó Isaías sobre ustedes, hipócritas, cuando escribió: Este pueblo me honra con los labios, pero su corazón está lejos de mí. Es inútil el culto que me rinden, porque enseñan doctrinas que no son sino preceptos humanos. Ustedes dejan a un lado el mandamiento de Dios, para aferrarse a las tradiciones de los hombres". Después añadió: "De veras son ustedes muy hábiles para violar el mandamiento de Dios y conservar su tradición. Porque Moisés dijo: Honra a tu padre y a tu madre. El que maldiga a su padre o a su madre, morirá. Pero ustedes dicen: 'Si uno dice a su padre o a su madre: Todo aquello con que yo te podría ayudar es corbán (es decir, ofrenda para el templo), ya no puede hacer nada por su padre o por su madre'. Así anulan la palabra de Dios con esa tradición que se han transmitido. Y hacen muchas cosas semejantes a ésta".
-*Oración de la mañana*
-Querido Jesús, te agradezco por tu enseñanza en el evangelio de hoy. Ayúdame a comprender que no es la superficialidad de las tradiciones lo que verdaderamente cuenta, sino la intención sincera y el amor puro en mi corazón. Enséñame a no ser hipócrita, a honrarte no sólo con mis palabras, sino con acciones auténticas que reflejen tu amor y gracia.
-Padre celestial, te agradezco por este nuevo día. Ayúdame a recordar siempre tus mandamientos y a ponerlos por encima de cualquier convención humana. Inspírame a honrar a mis padres y a todas las personas con mis acciones y pensamientos, y a ofrecer lo que tengo para ayudar a los demás, en vez de guardarlo para mí mismo.
-Espíritu Santo, te pido que me guíes en mi día a día. Que tu sabiduría ilumine mi mente y mi corazón para discernir lo que es verdaderamente importante según los designios de Dios. Ayúdame a vivir una fe auténtica, no basada en rituales vacíos, sino en el amor genuino y el servicio desinteresado a los demás.
-En la Trinidad Santa confío y en ella encuentro mi paz. Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +456,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>martes, 10 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 1-13 En aquel tiempo, se acercaron a Jesús los fariseos y algunos escribas, venidos de Jerusalén. Viendo que algunos de los discípulos de Jesús comían con las manos impuras, es decir, sin habérselas lavado, los fariseos y los escribas le preguntaron: "¿Por qué tus discípulos comen con manos impuras y no siguen la tradición de nuestros mayores?" (Los fariseos y los judíos, en general, no comen sin lavarse antes las manos hasta el codo, siguiendo la tradición de sus mayores; al volver del mercado, no comen sin hacer primero las abluciones, y observan muchas otras cosas por tradición, como purificar los vasos, las jarras y las ollas). Jesús les contestó: "¡Qué bien profetizó Isaías sobre ustedes, hipócritas, cuando escribió: Este pueblo me honra con los labios, pero su corazón está lejos de mí. Es inútil el culto que me rinden, porque enseñan doctrinas que no son sino preceptos humanos. Ustedes dejan a un lado el mandamiento de Dios, para aferrarse a las tradiciones de los hombres". Después añadió: "De veras son ustedes muy hábiles para violar el mandamiento de Dios y conservar su tradición. Porque Moisés dijo: Honra a tu padre y a tu madre. El que maldiga a su padre o a su madre, morirá. Pero ustedes dicen: 'Si uno dice a su padre o a su madre: Todo aquello con que yo te podría ayudar es corbán (es decir, ofrenda para el templo), ya no puede hacer nada por su padre o por su madre'. Así anulan la palabra de Dios con esa tradición que se han transmitido. Y hacen muchas cosas semejantes a ésta".
+*Oración de la mañana*
+Querido Jesús, te agradezco por tu enseñanza en el evangelio de hoy. Ayúdame a comprender que no es la superficialidad de las tradiciones lo que verdaderamente cuenta, sino la intención sincera y el amor puro en mi corazón. Enséñame a no ser hipócrita, a honrarte no sólo con mis palabras, sino con acciones auténticas que reflejen tu amor y gracia.
+Padre celestial, te agradezco por este nuevo día. Ayúdame a recordar siempre tus mandamientos y a ponerlos por encima de cualquier convención humana. Inspírame a honrar a mis padres y a todas las personas con mis acciones y pensamientos, y a ofrecer lo que tengo para ayudar a los demás, en vez de guardarlo para mí mismo.
+Espíritu Santo, te pido que me guíes en mi día a día. Que tu sabiduría ilumine mi mente y mi corazón para discernir lo que es verdaderamente importante según los designios de Dios. Ayúdame a vivir una fe auténtica, no basada en rituales vacíos, sino en el amor genuino y el servicio desinteresado a los demás.
+En la Trinidad Santa confío y en ella encuentro mi paz. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>martes, 10 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 1-13 En aquel tiempo, se acercaron a Jesús los fariseos y algunos escribas, venidos de Jerusalén. Viendo que algunos de los discípulos de Jesús comían con las manos impuras, es decir, sin habérselas lavado, los fariseos y los escribas le preguntaron: "¿Por qué tus discípulos comen con manos impuras y no siguen la tradición de nuestros mayores?" (Los fariseos y los judíos, en general, no comen sin lavarse antes las manos hasta el codo, siguiendo la tradición de sus mayores; al volver del mercado, no comen sin hacer primero las abluciones, y observan muchas otras cosas por tradición, como purificar los vasos, las jarras y las ollas). Jesús les contestó: "¡Qué bien profetizó Isaías sobre ustedes, hipócritas, cuando escribió: Este pueblo me honra con los labios, pero su corazón está lejos de mí. Es inútil el culto que me rinden, porque enseñan doctrinas que no son sino preceptos humanos. Ustedes dejan a un lado el mandamiento de Dios, para aferrarse a las tradiciones de los hombres". Después añadió: "De veras son ustedes muy hábiles para violar el mandamiento de Dios y conservar su tradición. Porque Moisés dijo: Honra a tu padre y a tu madre. El que maldiga a su padre o a su madre, morirá. Pero ustedes dicen: 'Si uno dice a su padre o a su madre: Todo aquello con que yo te podría ayudar es corbán (es decir, ofrenda para el templo), ya no puede hacer nada por su padre o por su madre'. Así anulan la palabra de Dios con esa tradición que se han transmitido. Y hacen muchas cosas semejantes a ésta".
+*Oración de la mañana*
+Querido Jesús, te agradezco por tu enseñanza en el evangelio de hoy. Ayúdame a comprender que no es la superficialidad de las tradiciones lo que verdaderamente cuenta, sino la intención sincera y el amor puro en mi corazón. Enséñame a no ser hipócrita, a honrarte no sólo con mis palabras, sino con acciones auténticas que reflejen tu amor y gracia.
+Padre celestial, te agradezco por este nuevo día. Ayúdame a recordar siempre tus mandamientos y a ponerlos por encima de cualquier convención humana. Inspírame a honrar a mis padres y a todas las personas con mis acciones y pensamientos, y a ofrecer lo que tengo para ayudar a los demás, en vez de guardarlo para mí mismo.
+Espíritu Santo, te pido que me guíes en mi día a día. Que tu sabiduría ilumine mi mente y mi corazón para discernir lo que es verdaderamente importante según los designios de Dios. Ayúdame a vivir una fe auténtica, no basada en rituales vacíos, sino en el amor genuino y el servicio desinteresado a los demás.
+En la Trinidad Santa confío y en ella encuentro mi paz. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>martes, 10 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 1-13 En aquel tiempo, se acercaron a Jesús los fariseos y algunos escribas, venidos de Jerusalén. Viendo que algunos de los discípulos de Jesús comían con las manos impuras, es decir, sin habérselas lavado, los fariseos y los escribas le preguntaron: "¿Por qué tus discípulos comen con manos impuras y no siguen la tradición de nuestros mayores?" (Los fariseos y los judíos, en general, no comen sin lavarse antes las manos hasta el codo, siguiendo la tradición de sus mayores; al volver del mercado, no comen sin hacer primero las abluciones, y observan muchas otras cosas por tradición, como purificar los vasos, las jarras y las ollas). Jesús les contestó: "¡Qué bien profetizó Isaías sobre ustedes, hipócritas, cuando escribió: Este pueblo me honra con los labios, pero su corazón está lejos de mí. Es inútil el culto que me rinden, porque enseñan doctrinas que no son sino preceptos humanos. Ustedes dejan a un lado el mandamiento de Dios, para aferrarse a las tradiciones de los hombres". Después añadió: "De veras son ustedes muy hábiles para violar el mandamiento de Dios y conservar su tradición. Porque Moisés dijo: Honra a tu padre y a tu madre. El que maldiga a su padre o a su madre, morirá. Pero ustedes dicen: 'Si uno dice a su padre o a su madre: Todo aquello con que yo te podría ayudar es corbán (es decir, ofrenda para el templo), ya no puede hacer nada por su padre o por su madre'. Así anulan la palabra de Dios con esa tradición que se han transmitido. Y hacen muchas cosas semejantes a ésta".
+*Oración de la mañana*
+Querido Jesús, te agradezco por tu enseñanza en el evangelio de hoy. Ayúdame a comprender que no es la superficialidad de las tradiciones lo que verdaderamente cuenta, sino la intención sincera y el amor puro en mi corazón. Enséñame a no ser hipócrita, a honrarte no sólo con mis palabras, sino con acciones auténticas que reflejen tu amor y gracia.
+Padre celestial, te agradezco por este nuevo día. Ayúdame a recordar siempre tus mandamientos y a ponerlos por encima de cualquier convención humana. Inspírame a honrar a mis padres y a todas las personas con mis acciones y pensamientos, y a ofrecer lo que tengo para ayudar a los demás, en vez de guardarlo para mí mismo.
+Espíritu Santo, te pido que me guíes en mi día a día. Que tu sabiduría ilumine mi mente y mi corazón para discernir lo que es verdaderamente importante según los designios de Dios. Ayúdame a vivir una fe auténtica, no basada en rituales vacíos, sino en el amor genuino y el servicio desinteresado a los demás.
+En la Trinidad Santa confío y en ella encuentro mi paz. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>martes, 10 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 1-13 En aquel tiempo, se acercaron a Jesús los fariseos y algunos escribas, venidos de Jerusalén. Viendo que algunos de los discípulos de Jesús comían con las manos impuras, es decir, sin habérselas lavado, los fariseos y los escribas le preguntaron: "¿Por qué tus discípulos comen con manos impuras y no siguen la tradición de nuestros mayores?" (Los fariseos y los judíos, en general, no comen sin lavarse antes las manos hasta el codo, siguiendo la tradición de sus mayores; al volver del mercado, no comen sin hacer primero las abluciones, y observan muchas otras cosas por tradición, como purificar los vasos, las jarras y las ollas). Jesús les contestó: "¡Qué bien profetizó Isaías sobre ustedes, hipócritas, cuando escribió: Este pueblo me honra con los labios, pero su corazón está lejos de mí. Es inútil el culto que me rinden, porque enseñan doctrinas que no son sino preceptos humanos. Ustedes dejan a un lado el mandamiento de Dios, para aferrarse a las tradiciones de los hombres". Después añadió: "De veras son ustedes muy hábiles para violar el mandamiento de Dios y conservar su tradición. Porque Moisés dijo: Honra a tu padre y a tu madre. El que maldiga a su padre o a su madre, morirá. Pero ustedes dicen: 'Si uno dice a su padre o a su madre: Todo aquello con que yo te podría ayudar es corbán (es decir, ofrenda para el templo), ya no puede hacer nada por su padre o por su madre'. Así anulan la palabra de Dios con esa tradición que se han transmitido. Y hacen muchas cosas semejantes a ésta".
+*Oración de la mañana*
+Querido Jesús, te agradezco por tu enseñanza en el evangelio de hoy. Ayúdame a comprender que no es la superficialidad de las tradiciones lo que verdaderamente cuenta, sino la intención sincera y el amor puro en mi corazón. Enséñame a no ser hipócrita, a honrarte no sólo con mis palabras, sino con acciones auténticas que reflejen tu amor y gracia.
+Padre celestial, te agradezco por este nuevo día. Ayúdame a recordar siempre tus mandamientos y a ponerlos por encima de cualquier convención humana. Inspírame a honrar a mis padres y a todas las personas con mis acciones y pensamientos, y a ofrecer lo que tengo para ayudar a los demás, en vez de guardarlo para mí mismo.
+Espíritu Santo, te pido que me guíes en mi día a día. Que tu sabiduría ilumine mi mente y mi corazón para discernir lo que es verdaderamente importante según los designios de Dios. Ayúdame a vivir una fe auténtica, no basada en rituales vacíos, sino en el amor genuino y el servicio desinteresado a los demás.
+En la Trinidad Santa confío y en ella encuentro mi paz. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>martes, 10 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 1-13 En aquel tiempo, se acercaron a Jesús los fariseos y algunos escribas, venidos de Jerusalén. Viendo que algunos de los discípulos de Jesús comían con las manos impuras, es decir, sin habérselas lavado, los fariseos y los escribas le preguntaron: "¿Por qué tus discípulos comen con manos impuras y no siguen la tradición de nuestros mayores?" (Los fariseos y los judíos, en general, no comen sin lavarse antes las manos hasta el codo, siguiendo la tradición de sus mayores; al volver del mercado, no comen sin hacer primero las abluciones, y observan muchas otras cosas por tradición, como purificar los vasos, las jarras y las ollas). Jesús les contestó: "¡Qué bien profetizó Isaías sobre ustedes, hipócritas, cuando escribió: Este pueblo me honra con los labios, pero su corazón está lejos de mí. Es inútil el culto que me rinden, porque enseñan doctrinas que no son sino preceptos humanos. Ustedes dejan a un lado el mandamiento de Dios, para aferrarse a las tradiciones de los hombres". Después añadió: "De veras son ustedes muy hábiles para violar el mandamiento de Dios y conservar su tradición. Porque Moisés dijo: Honra a tu padre y a tu madre. El que maldiga a su padre o a su madre, morirá. Pero ustedes dicen: 'Si uno dice a su padre o a su madre: Todo aquello con que yo te podría ayudar es corbán (es decir, ofrenda para el templo), ya no puede hacer nada por su padre o por su madre'. Así anulan la palabra de Dios con esa tradición que se han transmitido. Y hacen muchas cosas semejantes a ésta".
+*Oración de la mañana*
+Querido Jesús, te agradezco por tu enseñanza en el evangelio de hoy. Ayúdame a comprender que no es la superficialidad de las tradiciones lo que verdaderamente cuenta, sino la intención sincera y el amor puro en mi corazón. Enséñame a no ser hipócrita, a honrarte no sólo con mis palabras, sino con acciones auténticas que reflejen tu amor y gracia.
+Padre celestial, te agradezco por este nuevo día. Ayúdame a recordar siempre tus mandamientos y a ponerlos por encima de cualquier convención humana. Inspírame a honrar a mis padres y a todas las personas con mis acciones y pensamientos, y a ofrecer lo que tengo para ayudar a los demás, en vez de guardarlo para mí mismo.
+Espíritu Santo, te pido que me guíes en mi día a día. Que tu sabiduría ilumine mi mente y mi corazón para discernir lo que es verdaderamente importante según los designios de Dios. Ayúdame a vivir una fe auténtica, no basada en rituales vacíos, sino en el amor genuino y el servicio desinteresado a los demás.
+En la Trinidad Santa confío y en ella encuentro mi paz. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>martes, 10 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 1-13 En aquel tiempo, se acercaron a Jesús los fariseos y algunos escribas, venidos de Jerusalén. Viendo que algunos de los discípulos de Jesús comían con las manos impuras, es decir, sin habérselas lavado, los fariseos y los escribas le preguntaron: "¿Por qué tus discípulos comen con manos impuras y no siguen la tradición de nuestros mayores?" (Los fariseos y los judíos, en general, no comen sin lavarse antes las manos hasta el codo, siguiendo la tradición de sus mayores; al volver del mercado, no comen sin hacer primero las abluciones, y observan muchas otras cosas por tradición, como purificar los vasos, las jarras y las ollas). Jesús les contestó: "¡Qué bien profetizó Isaías sobre ustedes, hipócritas, cuando escribió: Este pueblo me honra con los labios, pero su corazón está lejos de mí. Es inútil el culto que me rinden, porque enseñan doctrinas que no son sino preceptos humanos. Ustedes dejan a un lado el mandamiento de Dios, para aferrarse a las tradiciones de los hombres". Después añadió: "De veras son ustedes muy hábiles para violar el mandamiento de Dios y conservar su tradición. Porque Moisés dijo: Honra a tu padre y a tu madre. El que maldiga a su padre o a su madre, morirá. Pero ustedes dicen: 'Si uno dice a su padre o a su madre: Todo aquello con que yo te podría ayudar es corbán (es decir, ofrenda para el templo), ya no puede hacer nada por su padre o por su madre'. Así anulan la palabra de Dios con esa tradición que se han transmitido. Y hacen muchas cosas semejantes a ésta".
+*Oración de la mañana*
+Querido Jesús, te agradezco por tu enseñanza en el evangelio de hoy. Ayúdame a comprender que no es la superficialidad de las tradiciones lo que verdaderamente cuenta, sino la intención sincera y el amor puro en mi corazón. Enséñame a no ser hipócrita, a honrarte no sólo con mis palabras, sino con acciones auténticas que reflejen tu amor y gracia.
+Padre celestial, te agradezco por este nuevo día. Ayúdame a recordar siempre tus mandamientos y a ponerlos por encima de cualquier convención humana. Inspírame a honrar a mis padres y a todas las personas con mis acciones y pensamientos, y a ofrecer lo que tengo para ayudar a los demás, en vez de guardarlo para mí mismo.
+Espíritu Santo, te pido que me guíes en mi día a día. Que tu sabiduría ilumine mi mente y mi corazón para discernir lo que es verdaderamente importante según los designios de Dios. Ayúdame a vivir una fe auténtica, no basada en rituales vacíos, sino en el amor genuino y el servicio desinteresado a los demás.
+En la Trinidad Santa confío y en ella encuentro mi paz. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>martes, 10 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 1-13 En aquel tiempo, se acercaron a Jesús los fariseos y algunos escribas, venidos de Jerusalén. Viendo que algunos de los discípulos de Jesús comían con las manos impuras, es decir, sin habérselas lavado, los fariseos y los escribas le preguntaron: "¿Por qué tus discípulos comen con manos impuras y no siguen la tradición de nuestros mayores?" (Los fariseos y los judíos, en general, no comen sin lavarse antes las manos hasta el codo, siguiendo la tradición de sus mayores; al volver del mercado, no comen sin hacer primero las abluciones, y observan muchas otras cosas por tradición, como purificar los vasos, las jarras y las ollas). Jesús les contestó: "¡Qué bien profetizó Isaías sobre ustedes, hipócritas, cuando escribió: Este pueblo me honra con los labios, pero su corazón está lejos de mí. Es inútil el culto que me rinden, porque enseñan doctrinas que no son sino preceptos humanos. Ustedes dejan a un lado el mandamiento de Dios, para aferrarse a las tradiciones de los hombres". Después añadió: "De veras son ustedes muy hábiles para violar el mandamiento de Dios y conservar su tradición. Porque Moisés dijo: Honra a tu padre y a tu madre. El que maldiga a su padre o a su madre, morirá. Pero ustedes dicen: 'Si uno dice a su padre o a su madre: Todo aquello con que yo te podría ayudar es corbán (es decir, ofrenda para el templo), ya no puede hacer nada por su padre o por su madre'. Así anulan la palabra de Dios con esa tradición que se han transmitido. Y hacen muchas cosas semejantes a ésta".
+*Oración de la mañana*
+Querido Jesús, te agradezco por tu enseñanza en el evangelio de hoy. Ayúdame a comprender que no es la superficialidad de las tradiciones lo que verdaderamente cuenta, sino la intención sincera y el amor puro en mi corazón. Enséñame a no ser hipócrita, a honrarte no sólo con mis palabras, sino con acciones auténticas que reflejen tu amor y gracia.
+Padre celestial, te agradezco por este nuevo día. Ayúdame a recordar siempre tus mandamientos y a ponerlos por encima de cualquier convención humana. Inspírame a honrar a mis padres y a todas las personas con mis acciones y pensamientos, y a ofrecer lo que tengo para ayudar a los demás, en vez de guardarlo para mí mismo.
+Espíritu Santo, te pido que me guíes en mi día a día. Que tu sabiduría ilumine mi mente y mi corazón para discernir lo que es verdaderamente importante según los designios de Dios. Ayúdame a vivir una fe auténtica, no basada en rituales vacíos, sino en el amor genuino y el servicio desinteresado a los demás.
+En la Trinidad Santa confío y en ella encuentro mi paz. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>martes, 10 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 1-13 En aquel tiempo, se acercaron a Jesús los fariseos y algunos escribas, venidos de Jerusalén. Viendo que algunos de los discípulos de Jesús comían con las manos impuras, es decir, sin habérselas lavado, los fariseos y los escribas le preguntaron: "¿Por qué tus discípulos comen con manos impuras y no siguen la tradición de nuestros mayores?" (Los fariseos y los judíos, en general, no comen sin lavarse antes las manos hasta el codo, siguiendo la tradición de sus mayores; al volver del mercado, no comen sin hacer primero las abluciones, y observan muchas otras cosas por tradición, como purificar los vasos, las jarras y las ollas). Jesús les contestó: "¡Qué bien profetizó Isaías sobre ustedes, hipócritas, cuando escribió: Este pueblo me honra con los labios, pero su corazón está lejos de mí. Es inútil el culto que me rinden, porque enseñan doctrinas que no son sino preceptos humanos. Ustedes dejan a un lado el mandamiento de Dios, para aferrarse a las tradiciones de los hombres". Después añadió: "De veras son ustedes muy hábiles para violar el mandamiento de Dios y conservar su tradición. Porque Moisés dijo: Honra a tu padre y a tu madre. El que maldiga a su padre o a su madre, morirá. Pero ustedes dicen: 'Si uno dice a su padre o a su madre: Todo aquello con que yo te podría ayudar es corbán (es decir, ofrenda para el templo), ya no puede hacer nada por su padre o por su madre'. Así anulan la palabra de Dios con esa tradición que se han transmitido. Y hacen muchas cosas semejantes a ésta".
+*Oración de la mañana*
+Querido Jesús, te agradezco por tu enseñanza en el evangelio de hoy. Ayúdame a comprender que no es la superficialidad de las tradiciones lo que verdaderamente cuenta, sino la intención sincera y el amor puro en mi corazón. Enséñame a no ser hipócrita, a honrarte no sólo con mis palabras, sino con acciones auténticas que reflejen tu amor y gracia.
+Padre celestial, te agradezco por este nuevo día. Ayúdame a recordar siempre tus mandamientos y a ponerlos por encima de cualquier convención humana. Inspírame a honrar a mis padres y a todas las personas con mis acciones y pensamientos, y a ofrecer lo que tengo para ayudar a los demás, en vez de guardarlo para mí mismo.
+Espíritu Santo, te pido que me guíes en mi día a día. Que tu sabiduría ilumine mi mente y mi corazón para discernir lo que es verdaderamente importante según los designios de Dios. Ayúdame a vivir una fe auténtica, no basada en rituales vacíos, sino en el amor genuino y el servicio desinteresado a los demás.
+En la Trinidad Santa confío y en ella encuentro mi paz. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>martes, 10 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Marcos
+Marcos 7, 1-13 En aquel tiempo, se acercaron a Jesús los fariseos y algunos escribas, venidos de Jerusalén. Viendo que algunos de los discípulos de Jesús comían con las manos impuras, es decir, sin habérselas lavado, los fariseos y los escribas le preguntaron: "¿Por qué tus discípulos comen con manos impuras y no siguen la tradición de nuestros mayores?" (Los fariseos y los judíos, en general, no comen sin lavarse antes las manos hasta el codo, siguiendo la tradición de sus mayores; al volver del mercado, no comen sin hacer primero las abluciones, y observan muchas otras cosas por tradición, como purificar los vasos, las jarras y las ollas). Jesús les contestó: "¡Qué bien profetizó Isaías sobre ustedes, hipócritas, cuando escribió: Este pueblo me honra con los labios, pero su corazón está lejos de mí. Es inútil el culto que me rinden, porque enseñan doctrinas que no son sino preceptos humanos. Ustedes dejan a un lado el mandamiento de Dios, para aferrarse a las tradiciones de los hombres". Después añadió: "De veras son ustedes muy hábiles para violar el mandamiento de Dios y conservar su tradición. Porque Moisés dijo: Honra a tu padre y a tu madre. El que maldiga a su padre o a su madre, morirá. Pero ustedes dicen: 'Si uno dice a su padre o a su madre: Todo aquello con que yo te podría ayudar es corbán (es decir, ofrenda para el templo), ya no puede hacer nada por su padre o por su madre'. Así anulan la palabra de Dios con esa tradición que se han transmitido. Y hacen muchas cosas semejantes a ésta".
+*Oración de la mañana*
+Querido Jesús, te agradezco por tu enseñanza en el evangelio de hoy. Ayúdame a comprender que no es la superficialidad de las tradiciones lo que verdaderamente cuenta, sino la intención sincera y el amor puro en mi corazón. Enséñame a no ser hipócrita, a honrarte no sólo con mis palabras, sino con acciones auténticas que reflejen tu amor y gracia.
+Padre celestial, te agradezco por este nuevo día. Ayúdame a recordar siempre tus mandamientos y a ponerlos por encima de cualquier convención humana. Inspírame a honrar a mis padres y a todas las personas con mis acciones y pensamientos, y a ofrecer lo que tengo para ayudar a los demás, en vez de guardarlo para mí mismo.
+Espíritu Santo, te pido que me guíes en mi día a día. Que tu sabiduría ilumine mi mente y mi corazón para discernir lo que es verdaderamente importante según los designios de Dios. Ayúdame a vivir una fe auténtica, no basada en rituales vacíos, sino en el amor genuino y el servicio desinteresado a los demás.
+En la Trinidad Santa confío y en ella encuentro mi paz. Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>